--- a/crypto_method_assignments.xlsx
+++ b/crypto_method_assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_jasthi\_Teacher_Master_D0_NOT_DELETE_TWO\_CS421_Python\SILC\cryptoquote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E572CA24-137D-4E36-97A6-5D5AC6F597C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D9E84B-146E-43BF-918D-CB20218B3E75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
   <si>
     <t>Aare</t>
   </si>
@@ -445,19 +445,22 @@
     <t>passed</t>
   </si>
   <si>
-    <t>failed</t>
-  </si>
-  <si>
     <t>Soma</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>Post_Expo</t>
+  </si>
+  <si>
+    <t>Failing (run time error)</t>
+  </si>
+  <si>
+    <t>icrypto</t>
+  </si>
+  <si>
+    <t>tbd</t>
   </si>
 </sst>
 </file>
@@ -600,7 +603,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -795,24 +798,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +977,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,18 +993,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1377,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1442,13 +1415,13 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1468,13 +1441,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1493,7 +1466,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1518,20 +1491,22 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1577,7 +1552,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>70</v>
@@ -1664,18 +1639,18 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>141</v>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>68</v>
@@ -1699,7 +1674,7 @@
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>60</v>
@@ -1715,17 +1690,17 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1739,20 +1714,20 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>141</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>74</v>
@@ -1765,17 +1740,17 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="12">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1786,17 +1761,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1810,18 +1785,18 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>144</v>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>65</v>
@@ -1857,13 +1832,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="12">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="8"/>
@@ -1881,13 +1856,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="10">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="8"/>
@@ -1929,13 +1904,13 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="12">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="8"/>
@@ -2004,19 +1979,19 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="10">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E26" s="11" t="s">
+      <c r="D26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -2130,17 +2105,17 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="10">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10" t="s">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2154,17 +2129,17 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F32" s="2" t="s">
